--- a/NewsMiner Evaluation/Evaluation Auswertung NM+.xlsx
+++ b/NewsMiner Evaluation/Evaluation Auswertung NM+.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
   <si>
-    <t>Stefan Muehlbauer</t>
+    <t>Thiemo</t>
   </si>
   <si>
     <t>Florian Maurer</t>
@@ -66,9 +66,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="GENERAL" numFmtId="165"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -165,7 +164,7 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -185,16 +184,16 @@
   </sheetPr>
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="H13" activeCellId="0" pane="topLeft" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.2588235294118"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="14.4980392156863"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.521568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="14.5686274509804"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
